--- a/SuppXLS/Scen_Peak_RSV.xlsx
+++ b/SuppXLS/Scen_Peak_RSV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A108B1-D5F8-4490-9BE2-C39AD5F00B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD143AC-67BA-4462-A77E-CDFFB51ED56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peak_RSV" sheetId="2" r:id="rId1"/>
@@ -679,33 +679,33 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
@@ -779,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
@@ -807,11 +807,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E9" s="7"/>
       <c r="H9" s="7"/>
     </row>
